--- a/Energy use in Kyrgyz Republic(WBOD).xlsx
+++ b/Energy use in Kyrgyz Republic(WBOD).xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1087" uniqueCount="557">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1086" uniqueCount="556">
   <si>
     <t>Country Name</t>
   </si>
@@ -80,9 +80,6 @@
   </si>
   <si>
     <t>2023</t>
-  </si>
-  <si>
-    <t>2024</t>
   </si>
   <si>
     <t>Aruba</t>
@@ -2021,10 +2018,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W267"/>
+  <dimension ref="A1:V267"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:AX1"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="W1" sqref="W1:W1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2034,10 +2031,9 @@
     <col min="3" max="3" width="35.109375" customWidth="1"/>
     <col min="4" max="4" width="17.109375" customWidth="1"/>
     <col min="5" max="22" width="11.44140625" customWidth="1"/>
-    <col min="23" max="23" width="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2104,36 +2100,33 @@
       <c r="V1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" t="s">
+    </row>
+    <row r="2" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="2" spans="1:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
         <v>23</v>
       </c>
-      <c r="B2" t="s">
-        <v>24</v>
-      </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="3" spans="1:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="B3" t="s">
         <v>27</v>
       </c>
-      <c r="B3" t="s">
-        <v>28</v>
-      </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E3">
         <v>627.56767827806004</v>
@@ -2187,32 +2180,32 @@
         <v>565.48890860284996</v>
       </c>
     </row>
-    <row r="4" spans="1:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" t="s">
         <v>29</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>30</v>
       </c>
-      <c r="C4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="B5" t="s">
         <v>31</v>
       </c>
-      <c r="B5" t="s">
-        <v>32</v>
-      </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E5">
         <v>302.90726202662</v>
@@ -2266,18 +2259,18 @@
         <v>351.91306156423002</v>
       </c>
     </row>
-    <row r="6" spans="1:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" t="s">
         <v>33</v>
       </c>
-      <c r="B6" t="s">
-        <v>34</v>
-      </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E6">
         <v>422.90945868400001</v>
@@ -2331,18 +2324,18 @@
         <v>423.12251760056</v>
       </c>
     </row>
-    <row r="7" spans="1:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" t="s">
         <v>35</v>
       </c>
-      <c r="B7" t="s">
-        <v>36</v>
-      </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E7">
         <v>707.89060654962998</v>
@@ -2396,32 +2389,32 @@
         <v>780.73862394555999</v>
       </c>
     </row>
-    <row r="8" spans="1:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" t="s">
         <v>37</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>38</v>
       </c>
-      <c r="C8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="B9" t="s">
         <v>39</v>
       </c>
-      <c r="B9" t="s">
-        <v>40</v>
-      </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E9">
         <v>1543.293534123</v>
@@ -2475,18 +2468,18 @@
         <v>1779.7696205811999</v>
       </c>
     </row>
-    <row r="10" spans="1:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" t="s">
         <v>41</v>
       </c>
-      <c r="B10" t="s">
-        <v>42</v>
-      </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E10">
         <v>9239.4801240096003</v>
@@ -2540,18 +2533,18 @@
         <v>8335.8095716267999</v>
       </c>
     </row>
-    <row r="11" spans="1:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" t="s">
         <v>43</v>
       </c>
-      <c r="B11" t="s">
-        <v>44</v>
-      </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E11">
         <v>1784.0166977628</v>
@@ -2605,18 +2598,18 @@
         <v>1808.9984916763999</v>
       </c>
     </row>
-    <row r="12" spans="1:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" t="s">
         <v>45</v>
       </c>
-      <c r="B12" t="s">
-        <v>46</v>
-      </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E12">
         <v>818.27499739036</v>
@@ -2670,32 +2663,32 @@
         <v>1347.5905574741</v>
       </c>
     </row>
-    <row r="13" spans="1:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" t="s">
         <v>47</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>48</v>
       </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+      <c r="B14" t="s">
         <v>49</v>
       </c>
-      <c r="B14" t="s">
-        <v>50</v>
-      </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E14">
         <v>1774.105503449</v>
@@ -2704,18 +2697,18 @@
         <v>1786.9382159992001</v>
       </c>
     </row>
-    <row r="15" spans="1:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" t="s">
         <v>51</v>
       </c>
-      <c r="B15" t="s">
-        <v>52</v>
-      </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E15">
         <v>5775.1167522655996</v>
@@ -2772,18 +2765,18 @@
         <v>5077.0427801847</v>
       </c>
     </row>
-    <row r="16" spans="1:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
+        <v>52</v>
+      </c>
+      <c r="B16" t="s">
         <v>53</v>
       </c>
-      <c r="B16" t="s">
-        <v>54</v>
-      </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E16">
         <v>4105.0752502738997</v>
@@ -2842,16 +2835,16 @@
     </row>
     <row r="17" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
+        <v>54</v>
+      </c>
+      <c r="B17" t="s">
         <v>55</v>
       </c>
-      <c r="B17" t="s">
-        <v>56</v>
-      </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E17">
         <v>1559.8491757674001</v>
@@ -2907,30 +2900,30 @@
     </row>
     <row r="18" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
+        <v>56</v>
+      </c>
+      <c r="B18" t="s">
         <v>57</v>
       </c>
-      <c r="B18" t="s">
-        <v>58</v>
-      </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
+        <v>58</v>
+      </c>
+      <c r="B19" t="s">
         <v>59</v>
       </c>
-      <c r="B19" t="s">
-        <v>60</v>
-      </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E19">
         <v>5445.5654708470001</v>
@@ -2989,16 +2982,16 @@
     </row>
     <row r="20" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
+        <v>60</v>
+      </c>
+      <c r="B20" t="s">
         <v>61</v>
       </c>
-      <c r="B20" t="s">
-        <v>62</v>
-      </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E20">
         <v>339.27097277575001</v>
@@ -3054,16 +3047,16 @@
     </row>
     <row r="21" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
+        <v>62</v>
+      </c>
+      <c r="B21" t="s">
         <v>63</v>
       </c>
-      <c r="B21" t="s">
-        <v>64</v>
-      </c>
       <c r="C21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E21">
         <v>160.05194705349001</v>
@@ -3119,16 +3112,16 @@
     </row>
     <row r="22" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
+        <v>64</v>
+      </c>
+      <c r="B22" t="s">
         <v>65</v>
       </c>
-      <c r="B22" t="s">
-        <v>66</v>
-      </c>
       <c r="C22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E22">
         <v>168.32467252269001</v>
@@ -3184,16 +3177,16 @@
     </row>
     <row r="23" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
+        <v>66</v>
+      </c>
+      <c r="B23" t="s">
         <v>67</v>
       </c>
-      <c r="B23" t="s">
-        <v>68</v>
-      </c>
       <c r="C23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E23">
         <v>2696.7826424044001</v>
@@ -3249,16 +3242,16 @@
     </row>
     <row r="24" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
+        <v>68</v>
+      </c>
+      <c r="B24" t="s">
         <v>69</v>
       </c>
-      <c r="B24" t="s">
-        <v>70</v>
-      </c>
       <c r="C24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E24">
         <v>11582.020566629</v>
@@ -3317,16 +3310,16 @@
     </row>
     <row r="25" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
+        <v>70</v>
+      </c>
+      <c r="B25" t="s">
         <v>71</v>
       </c>
-      <c r="B25" t="s">
-        <v>72</v>
-      </c>
       <c r="C25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E25">
         <v>2026.5518478650999</v>
@@ -3337,16 +3330,16 @@
     </row>
     <row r="26" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
+        <v>72</v>
+      </c>
+      <c r="B26" t="s">
         <v>73</v>
       </c>
-      <c r="B26" t="s">
-        <v>74</v>
-      </c>
       <c r="C26" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E26">
         <v>1304.3945542194999</v>
@@ -3402,16 +3395,16 @@
     </row>
     <row r="27" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
+        <v>74</v>
+      </c>
+      <c r="B27" t="s">
         <v>75</v>
       </c>
-      <c r="B27" t="s">
-        <v>76</v>
-      </c>
       <c r="C27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E27">
         <v>2974.2455340645001</v>
@@ -3467,16 +3460,16 @@
     </row>
     <row r="28" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
+        <v>76</v>
+      </c>
+      <c r="B28" t="s">
         <v>77</v>
       </c>
-      <c r="B28" t="s">
-        <v>78</v>
-      </c>
       <c r="C28" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D28" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E28">
         <v>597.47531940613999</v>
@@ -3487,30 +3480,30 @@
     </row>
     <row r="29" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
+        <v>78</v>
+      </c>
+      <c r="B29" t="s">
         <v>79</v>
       </c>
-      <c r="B29" t="s">
-        <v>80</v>
-      </c>
       <c r="C29" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D29" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="30" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
+        <v>80</v>
+      </c>
+      <c r="B30" t="s">
         <v>81</v>
       </c>
-      <c r="B30" t="s">
-        <v>82</v>
-      </c>
       <c r="C30" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D30" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E30">
         <v>568.36995826632005</v>
@@ -3566,16 +3559,16 @@
     </row>
     <row r="31" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
+        <v>82</v>
+      </c>
+      <c r="B31" t="s">
         <v>83</v>
       </c>
-      <c r="B31" t="s">
-        <v>84</v>
-      </c>
       <c r="C31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D31" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E31">
         <v>1202.059339403</v>
@@ -3634,16 +3627,16 @@
     </row>
     <row r="32" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
+        <v>84</v>
+      </c>
+      <c r="B32" t="s">
         <v>85</v>
       </c>
-      <c r="B32" t="s">
-        <v>86</v>
-      </c>
       <c r="C32" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D32" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E32">
         <v>1474.0631550876999</v>
@@ -3654,16 +3647,16 @@
     </row>
     <row r="33" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
+        <v>86</v>
+      </c>
+      <c r="B33" t="s">
         <v>87</v>
       </c>
-      <c r="B33" t="s">
-        <v>88</v>
-      </c>
       <c r="C33" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D33" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E33">
         <v>8644.2561337740008</v>
@@ -3719,16 +3712,16 @@
     </row>
     <row r="34" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
+        <v>88</v>
+      </c>
+      <c r="B34" t="s">
         <v>89</v>
       </c>
-      <c r="B34" t="s">
-        <v>90</v>
-      </c>
       <c r="C34" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D34" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E34">
         <v>314.55026021207999</v>
@@ -3739,16 +3732,16 @@
     </row>
     <row r="35" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
+        <v>90</v>
+      </c>
+      <c r="B35" t="s">
         <v>91</v>
       </c>
-      <c r="B35" t="s">
-        <v>92</v>
-      </c>
       <c r="C35" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D35" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E35">
         <v>1096.7577442981999</v>
@@ -3804,30 +3797,30 @@
     </row>
     <row r="36" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
+        <v>92</v>
+      </c>
+      <c r="B36" t="s">
         <v>93</v>
       </c>
-      <c r="B36" t="s">
-        <v>94</v>
-      </c>
       <c r="C36" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D36" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="37" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
+        <v>94</v>
+      </c>
+      <c r="B37" t="s">
         <v>95</v>
       </c>
-      <c r="B37" t="s">
-        <v>96</v>
-      </c>
       <c r="C37" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D37" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E37">
         <v>8422.7331961748005</v>
@@ -3886,16 +3879,16 @@
     </row>
     <row r="38" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
+        <v>96</v>
+      </c>
+      <c r="B38" t="s">
         <v>97</v>
       </c>
-      <c r="B38" t="s">
-        <v>98</v>
-      </c>
       <c r="C38" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D38" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E38">
         <v>2703.2412835975001</v>
@@ -3954,16 +3947,16 @@
     </row>
     <row r="39" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
+        <v>98</v>
+      </c>
+      <c r="B39" t="s">
         <v>99</v>
       </c>
-      <c r="B39" t="s">
-        <v>100</v>
-      </c>
       <c r="C39" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D39" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E39">
         <v>3600.2059908820002</v>
@@ -4022,30 +4015,30 @@
     </row>
     <row r="40" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
+        <v>100</v>
+      </c>
+      <c r="B40" t="s">
         <v>101</v>
       </c>
-      <c r="B40" t="s">
-        <v>102</v>
-      </c>
       <c r="C40" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D40" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="41" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
+        <v>102</v>
+      </c>
+      <c r="B41" t="s">
         <v>103</v>
       </c>
-      <c r="B41" t="s">
-        <v>104</v>
-      </c>
       <c r="C41" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D41" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E41">
         <v>1788.4744258354001</v>
@@ -4104,16 +4097,16 @@
     </row>
     <row r="42" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
+        <v>104</v>
+      </c>
+      <c r="B42" t="s">
         <v>105</v>
       </c>
-      <c r="B42" t="s">
-        <v>106</v>
-      </c>
       <c r="C42" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D42" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E42">
         <v>1486.3961748966001</v>
@@ -4169,16 +4162,16 @@
     </row>
     <row r="43" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
+        <v>106</v>
+      </c>
+      <c r="B43" t="s">
         <v>107</v>
       </c>
-      <c r="B43" t="s">
-        <v>108</v>
-      </c>
       <c r="C43" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D43" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E43">
         <v>460.42706850344001</v>
@@ -4234,16 +4227,16 @@
     </row>
     <row r="44" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
+        <v>108</v>
+      </c>
+      <c r="B44" t="s">
         <v>109</v>
       </c>
-      <c r="B44" t="s">
-        <v>110</v>
-      </c>
       <c r="C44" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D44" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E44">
         <v>385.03515307331003</v>
@@ -4299,16 +4292,16 @@
     </row>
     <row r="45" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
+        <v>110</v>
+      </c>
+      <c r="B45" t="s">
         <v>111</v>
       </c>
-      <c r="B45" t="s">
-        <v>112</v>
-      </c>
       <c r="C45" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D45" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E45">
         <v>285.45469355701999</v>
@@ -4364,16 +4357,16 @@
     </row>
     <row r="46" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
+        <v>112</v>
+      </c>
+      <c r="B46" t="s">
         <v>113</v>
       </c>
-      <c r="B46" t="s">
-        <v>114</v>
-      </c>
       <c r="C46" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D46" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E46">
         <v>369.70798301085</v>
@@ -4429,16 +4422,16 @@
     </row>
     <row r="47" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
+        <v>114</v>
+      </c>
+      <c r="B47" t="s">
         <v>115</v>
       </c>
-      <c r="B47" t="s">
-        <v>116</v>
-      </c>
       <c r="C47" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D47" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E47">
         <v>678.54289948145004</v>
@@ -4497,16 +4490,16 @@
     </row>
     <row r="48" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
+        <v>116</v>
+      </c>
+      <c r="B48" t="s">
         <v>117</v>
       </c>
-      <c r="B48" t="s">
-        <v>118</v>
-      </c>
       <c r="C48" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D48" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E48">
         <v>69.449841505539993</v>
@@ -4517,16 +4510,16 @@
     </row>
     <row r="49" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
+        <v>118</v>
+      </c>
+      <c r="B49" t="s">
         <v>119</v>
       </c>
-      <c r="B49" t="s">
-        <v>120</v>
-      </c>
       <c r="C49" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D49" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E49">
         <v>207.85445297599</v>
@@ -4537,16 +4530,16 @@
     </row>
     <row r="50" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
+        <v>120</v>
+      </c>
+      <c r="B50" t="s">
         <v>121</v>
       </c>
-      <c r="B50" t="s">
-        <v>122</v>
-      </c>
       <c r="C50" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D50" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E50">
         <v>974.34383874174</v>
@@ -4605,16 +4598,16 @@
     </row>
     <row r="51" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
+        <v>122</v>
+      </c>
+      <c r="B51" t="s">
         <v>123</v>
       </c>
-      <c r="B51" t="s">
-        <v>124</v>
-      </c>
       <c r="C51" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D51" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E51">
         <v>1054.6810125755001</v>
@@ -4625,16 +4618,16 @@
     </row>
     <row r="52" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
+        <v>124</v>
+      </c>
+      <c r="B52" t="s">
         <v>125</v>
       </c>
-      <c r="B52" t="s">
-        <v>126</v>
-      </c>
       <c r="C52" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D52" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E52">
         <v>943.95012213832001</v>
@@ -4690,16 +4683,16 @@
     </row>
     <row r="53" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
+        <v>126</v>
+      </c>
+      <c r="B53" t="s">
         <v>127</v>
       </c>
-      <c r="B53" t="s">
-        <v>128</v>
-      </c>
       <c r="C53" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D53" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E53">
         <v>14173.75429296</v>
@@ -4755,30 +4748,30 @@
     </row>
     <row r="54" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
+        <v>128</v>
+      </c>
+      <c r="B54" t="s">
         <v>129</v>
       </c>
-      <c r="B54" t="s">
-        <v>130</v>
-      </c>
       <c r="C54" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D54" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="55" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
+        <v>130</v>
+      </c>
+      <c r="B55" t="s">
         <v>131</v>
       </c>
-      <c r="B55" t="s">
-        <v>132</v>
-      </c>
       <c r="C55" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D55" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E55">
         <v>2209.3321321968001</v>
@@ -4834,16 +4827,16 @@
     </row>
     <row r="56" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
+        <v>132</v>
+      </c>
+      <c r="B56" t="s">
         <v>133</v>
       </c>
-      <c r="B56" t="s">
-        <v>134</v>
-      </c>
       <c r="C56" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D56" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E56">
         <v>4519.4569758864</v>
@@ -4902,16 +4895,16 @@
     </row>
     <row r="57" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
+        <v>134</v>
+      </c>
+      <c r="B57" t="s">
         <v>135</v>
       </c>
-      <c r="B57" t="s">
-        <v>136</v>
-      </c>
       <c r="C57" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D57" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E57">
         <v>4235.9387657799998</v>
@@ -4970,16 +4963,16 @@
     </row>
     <row r="58" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
+        <v>136</v>
+      </c>
+      <c r="B58" t="s">
         <v>137</v>
       </c>
-      <c r="B58" t="s">
-        <v>138</v>
-      </c>
       <c r="C58" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D58" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E58">
         <v>167.10214498389999</v>
@@ -4990,16 +4983,16 @@
     </row>
     <row r="59" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
+        <v>138</v>
+      </c>
+      <c r="B59" t="s">
         <v>139</v>
       </c>
-      <c r="B59" t="s">
-        <v>140</v>
-      </c>
       <c r="C59" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D59" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E59">
         <v>610.41188268464998</v>
@@ -5010,16 +5003,16 @@
     </row>
     <row r="60" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
+        <v>140</v>
+      </c>
+      <c r="B60" t="s">
         <v>141</v>
       </c>
-      <c r="B60" t="s">
-        <v>142</v>
-      </c>
       <c r="C60" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D60" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E60">
         <v>3729.6971799985999</v>
@@ -5078,16 +5071,16 @@
     </row>
     <row r="61" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
+        <v>142</v>
+      </c>
+      <c r="B61" t="s">
         <v>143</v>
       </c>
-      <c r="B61" t="s">
-        <v>144</v>
-      </c>
       <c r="C61" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D61" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E61">
         <v>792.60970433689999</v>
@@ -5143,16 +5136,16 @@
     </row>
     <row r="62" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
+        <v>144</v>
+      </c>
+      <c r="B62" t="s">
         <v>145</v>
       </c>
-      <c r="B62" t="s">
-        <v>146</v>
-      </c>
       <c r="C62" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D62" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E62">
         <v>1032.6386681501999</v>
@@ -5208,16 +5201,16 @@
     </row>
     <row r="63" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
+        <v>146</v>
+      </c>
+      <c r="B63" t="s">
         <v>147</v>
       </c>
-      <c r="B63" t="s">
-        <v>148</v>
-      </c>
       <c r="C63" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D63" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E63">
         <v>1254.8307019823999</v>
@@ -5273,16 +5266,16 @@
     </row>
     <row r="64" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
+        <v>148</v>
+      </c>
+      <c r="B64" t="s">
         <v>149</v>
       </c>
-      <c r="B64" t="s">
-        <v>150</v>
-      </c>
       <c r="C64" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D64" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E64">
         <v>746.00749320561999</v>
@@ -5338,16 +5331,16 @@
     </row>
     <row r="65" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
+        <v>150</v>
+      </c>
+      <c r="B65" t="s">
         <v>151</v>
       </c>
-      <c r="B65" t="s">
-        <v>152</v>
-      </c>
       <c r="C65" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D65" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E65">
         <v>1590.7081395139001</v>
@@ -5403,16 +5396,16 @@
     </row>
     <row r="66" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
+        <v>152</v>
+      </c>
+      <c r="B66" t="s">
         <v>153</v>
       </c>
-      <c r="B66" t="s">
-        <v>154</v>
-      </c>
       <c r="C66" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D66" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E66">
         <v>1957.4604109884001</v>
@@ -5468,16 +5461,16 @@
     </row>
     <row r="67" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
+        <v>154</v>
+      </c>
+      <c r="B67" t="s">
         <v>155</v>
       </c>
-      <c r="B67" t="s">
-        <v>156</v>
-      </c>
       <c r="C67" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D67" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E67">
         <v>3389.9284944427</v>
@@ -5533,16 +5526,16 @@
     </row>
     <row r="68" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
+        <v>156</v>
+      </c>
+      <c r="B68" t="s">
         <v>157</v>
       </c>
-      <c r="B68" t="s">
-        <v>158</v>
-      </c>
       <c r="C68" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D68" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E68">
         <v>811.02739152362005</v>
@@ -5598,16 +5591,16 @@
     </row>
     <row r="69" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
+        <v>158</v>
+      </c>
+      <c r="B69" t="s">
         <v>159</v>
       </c>
-      <c r="B69" t="s">
-        <v>160</v>
-      </c>
       <c r="C69" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D69" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E69">
         <v>806.24970940129003</v>
@@ -5663,16 +5656,16 @@
     </row>
     <row r="70" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
+        <v>160</v>
+      </c>
+      <c r="B70" t="s">
         <v>161</v>
       </c>
-      <c r="B70" t="s">
-        <v>162</v>
-      </c>
       <c r="C70" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D70" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E70">
         <v>3828.8796642407001</v>
@@ -5731,16 +5724,16 @@
     </row>
     <row r="71" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
+        <v>162</v>
+      </c>
+      <c r="B71" t="s">
         <v>163</v>
       </c>
-      <c r="B71" t="s">
-        <v>164</v>
-      </c>
       <c r="C71" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D71" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E71">
         <v>245.38338713376001</v>
@@ -5796,16 +5789,16 @@
     </row>
     <row r="72" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
+        <v>164</v>
+      </c>
+      <c r="B72" t="s">
         <v>165</v>
       </c>
-      <c r="B72" t="s">
-        <v>166</v>
-      </c>
       <c r="C72" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D72" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E72">
         <v>3190.7262771088999</v>
@@ -5864,16 +5857,16 @@
     </row>
     <row r="73" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
+        <v>166</v>
+      </c>
+      <c r="B73" t="s">
         <v>167</v>
       </c>
-      <c r="B73" t="s">
-        <v>168</v>
-      </c>
       <c r="C73" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D73" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E73">
         <v>4006.7396264314002</v>
@@ -5932,16 +5925,16 @@
     </row>
     <row r="74" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
+        <v>168</v>
+      </c>
+      <c r="B74" t="s">
         <v>169</v>
       </c>
-      <c r="B74" t="s">
-        <v>170</v>
-      </c>
       <c r="C74" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D74" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E74">
         <v>366.04613898566998</v>
@@ -5997,16 +5990,16 @@
     </row>
     <row r="75" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
+        <v>170</v>
+      </c>
+      <c r="B75" t="s">
         <v>171</v>
       </c>
-      <c r="B75" t="s">
-        <v>172</v>
-      </c>
       <c r="C75" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D75" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E75">
         <v>3627.8847534803999</v>
@@ -6065,16 +6058,16 @@
     </row>
     <row r="76" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
+        <v>172</v>
+      </c>
+      <c r="B76" t="s">
         <v>173</v>
       </c>
-      <c r="B76" t="s">
-        <v>174</v>
-      </c>
       <c r="C76" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D76" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E76">
         <v>678.26876596661998</v>
@@ -6130,16 +6123,16 @@
     </row>
     <row r="77" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
+        <v>174</v>
+      </c>
+      <c r="B77" t="s">
         <v>175</v>
       </c>
-      <c r="B77" t="s">
-        <v>176</v>
-      </c>
       <c r="C77" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D77" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E77">
         <v>7106.7097893798</v>
@@ -6198,16 +6191,16 @@
     </row>
     <row r="78" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
+        <v>176</v>
+      </c>
+      <c r="B78" t="s">
         <v>177</v>
       </c>
-      <c r="B78" t="s">
-        <v>178</v>
-      </c>
       <c r="C78" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D78" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E78">
         <v>627.83240581109999</v>
@@ -6218,16 +6211,16 @@
     </row>
     <row r="79" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
+        <v>178</v>
+      </c>
+      <c r="B79" t="s">
         <v>179</v>
       </c>
-      <c r="B79" t="s">
-        <v>180</v>
-      </c>
       <c r="C79" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D79" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E79">
         <v>4214.2923463003999</v>
@@ -6286,44 +6279,44 @@
     </row>
     <row r="80" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
+        <v>180</v>
+      </c>
+      <c r="B80" t="s">
         <v>181</v>
       </c>
-      <c r="B80" t="s">
-        <v>182</v>
-      </c>
       <c r="C80" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D80" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="81" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
+        <v>182</v>
+      </c>
+      <c r="B81" t="s">
         <v>183</v>
       </c>
-      <c r="B81" t="s">
-        <v>184</v>
-      </c>
       <c r="C81" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D81" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="82" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
+        <v>184</v>
+      </c>
+      <c r="B82" t="s">
         <v>185</v>
       </c>
-      <c r="B82" t="s">
-        <v>186</v>
-      </c>
       <c r="C82" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D82" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E82">
         <v>2263.4301732398999</v>
@@ -6379,16 +6372,16 @@
     </row>
     <row r="83" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
+        <v>186</v>
+      </c>
+      <c r="B83" t="s">
         <v>187</v>
       </c>
-      <c r="B83" t="s">
-        <v>188</v>
-      </c>
       <c r="C83" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D83" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E83">
         <v>3601.0509081217001</v>
@@ -6447,16 +6440,16 @@
     </row>
     <row r="84" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
+        <v>188</v>
+      </c>
+      <c r="B84" t="s">
         <v>189</v>
       </c>
-      <c r="B84" t="s">
-        <v>190</v>
-      </c>
       <c r="C84" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D84" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E84">
         <v>781.34402083108</v>
@@ -6512,16 +6505,16 @@
     </row>
     <row r="85" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
+        <v>190</v>
+      </c>
+      <c r="B85" t="s">
         <v>191</v>
       </c>
-      <c r="B85" t="s">
-        <v>192</v>
-      </c>
       <c r="C85" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D85" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E85">
         <v>275.07284306568999</v>
@@ -6577,16 +6570,16 @@
     </row>
     <row r="86" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
+        <v>192</v>
+      </c>
+      <c r="B86" t="s">
         <v>193</v>
       </c>
-      <c r="B86" t="s">
-        <v>194</v>
-      </c>
       <c r="C86" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D86" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E86">
         <v>5304.0995899031004</v>
@@ -6642,30 +6635,30 @@
     </row>
     <row r="87" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
+        <v>194</v>
+      </c>
+      <c r="B87" t="s">
         <v>195</v>
       </c>
-      <c r="B87" t="s">
-        <v>196</v>
-      </c>
       <c r="C87" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D87" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="88" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
+        <v>196</v>
+      </c>
+      <c r="B88" t="s">
         <v>197</v>
       </c>
-      <c r="B88" t="s">
-        <v>198</v>
-      </c>
       <c r="C88" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D88" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E88">
         <v>66.461646091735005</v>
@@ -6676,16 +6669,16 @@
     </row>
     <row r="89" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
+        <v>198</v>
+      </c>
+      <c r="B89" t="s">
         <v>199</v>
       </c>
-      <c r="B89" t="s">
-        <v>200</v>
-      </c>
       <c r="C89" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D89" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E89">
         <v>63.590623350618003</v>
@@ -6696,16 +6689,16 @@
     </row>
     <row r="90" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
+        <v>200</v>
+      </c>
+      <c r="B90" t="s">
         <v>201</v>
       </c>
-      <c r="B90" t="s">
-        <v>202</v>
-      </c>
       <c r="C90" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D90" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E90">
         <v>1362.7589016065001</v>
@@ -6761,16 +6754,16 @@
     </row>
     <row r="91" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
+        <v>202</v>
+      </c>
+      <c r="B91" t="s">
         <v>203</v>
       </c>
-      <c r="B91" t="s">
-        <v>204</v>
-      </c>
       <c r="C91" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D91" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E91">
         <v>2748.7008692601999</v>
@@ -6829,16 +6822,16 @@
     </row>
     <row r="92" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
+        <v>204</v>
+      </c>
+      <c r="B92" t="s">
         <v>205</v>
       </c>
-      <c r="B92" t="s">
-        <v>206</v>
-      </c>
       <c r="C92" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D92" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E92">
         <v>735.46102510554999</v>
@@ -6849,30 +6842,30 @@
     </row>
     <row r="93" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
+        <v>206</v>
+      </c>
+      <c r="B93" t="s">
         <v>207</v>
       </c>
-      <c r="B93" t="s">
-        <v>208</v>
-      </c>
       <c r="C93" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D93" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="94" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
+        <v>208</v>
+      </c>
+      <c r="B94" t="s">
         <v>209</v>
       </c>
-      <c r="B94" t="s">
-        <v>210</v>
-      </c>
       <c r="C94" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D94" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E94">
         <v>686.76334692887997</v>
@@ -6928,30 +6921,30 @@
     </row>
     <row r="95" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
+        <v>210</v>
+      </c>
+      <c r="B95" t="s">
         <v>211</v>
       </c>
-      <c r="B95" t="s">
-        <v>212</v>
-      </c>
       <c r="C95" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D95" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="96" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
+        <v>212</v>
+      </c>
+      <c r="B96" t="s">
         <v>213</v>
       </c>
-      <c r="B96" t="s">
-        <v>214</v>
-      </c>
       <c r="C96" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D96" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E96">
         <v>658.79103938779997</v>
@@ -6962,16 +6955,16 @@
     </row>
     <row r="97" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
+        <v>214</v>
+      </c>
+      <c r="B97" t="s">
         <v>215</v>
       </c>
-      <c r="B97" t="s">
-        <v>216</v>
-      </c>
       <c r="C97" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D97" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E97">
         <v>5020.8525582827997</v>
@@ -7030,16 +7023,16 @@
     </row>
     <row r="98" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
+        <v>216</v>
+      </c>
+      <c r="B98" t="s">
         <v>217</v>
       </c>
-      <c r="B98" t="s">
-        <v>218</v>
-      </c>
       <c r="C98" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D98" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E98">
         <v>1899.4468019588001</v>
@@ -7095,16 +7088,16 @@
     </row>
     <row r="99" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
+        <v>218</v>
+      </c>
+      <c r="B99" t="s">
         <v>219</v>
       </c>
-      <c r="B99" t="s">
-        <v>220</v>
-      </c>
       <c r="C99" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D99" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E99">
         <v>563.81595458584002</v>
@@ -7160,16 +7153,16 @@
     </row>
     <row r="100" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
+        <v>220</v>
+      </c>
+      <c r="B100" t="s">
         <v>221</v>
       </c>
-      <c r="B100" t="s">
-        <v>222</v>
-      </c>
       <c r="C100" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D100" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E100">
         <v>363.34171587562997</v>
@@ -7225,16 +7218,16 @@
     </row>
     <row r="101" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
+        <v>222</v>
+      </c>
+      <c r="B101" t="s">
         <v>223</v>
       </c>
-      <c r="B101" t="s">
-        <v>224</v>
-      </c>
       <c r="C101" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D101" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E101">
         <v>2247.1461916664002</v>
@@ -7290,16 +7283,16 @@
     </row>
     <row r="102" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
+        <v>224</v>
+      </c>
+      <c r="B102" t="s">
         <v>225</v>
       </c>
-      <c r="B102" t="s">
-        <v>226</v>
-      </c>
       <c r="C102" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D102" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E102">
         <v>367.72665381786999</v>
@@ -7355,16 +7348,16 @@
     </row>
     <row r="103" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
+        <v>226</v>
+      </c>
+      <c r="B103" t="s">
         <v>227</v>
       </c>
-      <c r="B103" t="s">
-        <v>228</v>
-      </c>
       <c r="C103" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D103" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E103">
         <v>2760.4624279369</v>
@@ -7423,16 +7416,16 @@
     </row>
     <row r="104" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
+        <v>228</v>
+      </c>
+      <c r="B104" t="s">
         <v>229</v>
       </c>
-      <c r="B104" t="s">
-        <v>230</v>
-      </c>
       <c r="C104" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D104" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E104">
         <v>1239.7715797603</v>
@@ -7488,16 +7481,16 @@
     </row>
     <row r="105" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
+        <v>230</v>
+      </c>
+      <c r="B105" t="s">
         <v>231</v>
       </c>
-      <c r="B105" t="s">
-        <v>232</v>
-      </c>
       <c r="C105" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D105" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E105">
         <v>1052.2623176923</v>
@@ -7553,16 +7546,16 @@
     </row>
     <row r="106" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
+        <v>232</v>
+      </c>
+      <c r="B106" t="s">
         <v>233</v>
       </c>
-      <c r="B106" t="s">
-        <v>234</v>
-      </c>
       <c r="C106" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D106" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E106">
         <v>385.21513211365999</v>
@@ -7618,16 +7611,16 @@
     </row>
     <row r="107" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
+        <v>234</v>
+      </c>
+      <c r="B107" t="s">
         <v>235</v>
       </c>
-      <c r="B107" t="s">
-        <v>236</v>
-      </c>
       <c r="C107" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D107" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E107">
         <v>468.78210589485002</v>
@@ -7683,16 +7676,16 @@
     </row>
     <row r="108" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
+        <v>236</v>
+      </c>
+      <c r="B108" t="s">
         <v>237</v>
       </c>
-      <c r="B108" t="s">
-        <v>238</v>
-      </c>
       <c r="C108" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D108" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E108">
         <v>643.62455453687005</v>
@@ -7748,16 +7741,16 @@
     </row>
     <row r="109" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
+        <v>238</v>
+      </c>
+      <c r="B109" t="s">
         <v>239</v>
       </c>
-      <c r="B109" t="s">
-        <v>240</v>
-      </c>
       <c r="C109" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D109" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E109">
         <v>338.18801974026002</v>
@@ -7813,30 +7806,30 @@
     </row>
     <row r="110" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
+        <v>240</v>
+      </c>
+      <c r="B110" t="s">
         <v>241</v>
       </c>
-      <c r="B110" t="s">
-        <v>242</v>
-      </c>
       <c r="C110" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D110" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="111" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
+        <v>242</v>
+      </c>
+      <c r="B111" t="s">
         <v>243</v>
       </c>
-      <c r="B111" t="s">
-        <v>244</v>
-      </c>
       <c r="C111" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D111" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E111">
         <v>441.78625324717001</v>
@@ -7892,30 +7885,30 @@
     </row>
     <row r="112" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
+        <v>244</v>
+      </c>
+      <c r="B112" t="s">
         <v>245</v>
       </c>
-      <c r="B112" t="s">
-        <v>246</v>
-      </c>
       <c r="C112" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D112" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="113" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
+        <v>246</v>
+      </c>
+      <c r="B113" t="s">
         <v>247</v>
       </c>
-      <c r="B113" t="s">
-        <v>248</v>
-      </c>
       <c r="C113" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D113" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E113">
         <v>3433.1487283676001</v>
@@ -7974,16 +7967,16 @@
     </row>
     <row r="114" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
+        <v>248</v>
+      </c>
+      <c r="B114" t="s">
         <v>249</v>
       </c>
-      <c r="B114" t="s">
-        <v>250</v>
-      </c>
       <c r="C114" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D114" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E114">
         <v>2459.0456521587998</v>
@@ -8039,16 +8032,16 @@
     </row>
     <row r="115" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
+        <v>250</v>
+      </c>
+      <c r="B115" t="s">
         <v>251</v>
       </c>
-      <c r="B115" t="s">
-        <v>252</v>
-      </c>
       <c r="C115" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D115" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E115">
         <v>916.17904354581003</v>
@@ -8104,16 +8097,16 @@
     </row>
     <row r="116" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
+        <v>252</v>
+      </c>
+      <c r="B116" t="s">
         <v>253</v>
       </c>
-      <c r="B116" t="s">
-        <v>254</v>
-      </c>
       <c r="C116" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D116" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E116">
         <v>13184.477159761</v>
@@ -8172,16 +8165,16 @@
     </row>
     <row r="117" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
+        <v>254</v>
+      </c>
+      <c r="B117" t="s">
         <v>255</v>
       </c>
-      <c r="B117" t="s">
-        <v>256</v>
-      </c>
       <c r="C117" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D117" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E117">
         <v>2883.0135771322002</v>
@@ -8240,16 +8233,16 @@
     </row>
     <row r="118" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
+        <v>256</v>
+      </c>
+      <c r="B118" t="s">
         <v>257</v>
       </c>
-      <c r="B118" t="s">
-        <v>258</v>
-      </c>
       <c r="C118" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D118" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E118">
         <v>3176.1578106461998</v>
@@ -8308,16 +8301,16 @@
     </row>
     <row r="119" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
+        <v>258</v>
+      </c>
+      <c r="B119" t="s">
         <v>259</v>
       </c>
-      <c r="B119" t="s">
-        <v>260</v>
-      </c>
       <c r="C119" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D119" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E119">
         <v>1470.6749975609</v>
@@ -8373,16 +8366,16 @@
     </row>
     <row r="120" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
+        <v>260</v>
+      </c>
+      <c r="B120" t="s">
         <v>261</v>
       </c>
-      <c r="B120" t="s">
-        <v>262</v>
-      </c>
       <c r="C120" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D120" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E120">
         <v>1066.3573147471</v>
@@ -8438,16 +8431,16 @@
     </row>
     <row r="121" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
+        <v>262</v>
+      </c>
+      <c r="B121" t="s">
         <v>263</v>
       </c>
-      <c r="B121" t="s">
-        <v>264</v>
-      </c>
       <c r="C121" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D121" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E121">
         <v>4064.3606339884</v>
@@ -8506,16 +8499,16 @@
     </row>
     <row r="122" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
+        <v>264</v>
+      </c>
+      <c r="B122" t="s">
         <v>265</v>
       </c>
-      <c r="B122" t="s">
-        <v>266</v>
-      </c>
       <c r="C122" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D122" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E122">
         <v>3763.6349082931001</v>
@@ -8571,16 +8564,16 @@
     </row>
     <row r="123" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
+        <v>266</v>
+      </c>
+      <c r="B123" t="s">
         <v>267</v>
       </c>
-      <c r="B123" t="s">
-        <v>268</v>
-      </c>
       <c r="C123" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D123" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E123">
         <v>458.80549688081999</v>
@@ -8639,16 +8632,16 @@
     </row>
     <row r="124" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
+        <v>268</v>
+      </c>
+      <c r="B124" t="s">
         <v>269</v>
       </c>
-      <c r="B124" t="s">
-        <v>270</v>
-      </c>
       <c r="C124" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D124" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E124">
         <v>485.42484905971003</v>
@@ -8704,16 +8697,16 @@
     </row>
     <row r="125" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
+        <v>270</v>
+      </c>
+      <c r="B125" t="s">
         <v>271</v>
       </c>
-      <c r="B125" t="s">
-        <v>272</v>
-      </c>
       <c r="C125" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D125" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E125">
         <v>289.72636002754001</v>
@@ -8769,16 +8762,16 @@
     </row>
     <row r="126" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
+        <v>272</v>
+      </c>
+      <c r="B126" t="s">
         <v>273</v>
       </c>
-      <c r="B126" t="s">
-        <v>274</v>
-      </c>
       <c r="C126" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D126" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E126">
         <v>99.983002889508995</v>
@@ -8789,16 +8782,16 @@
     </row>
     <row r="127" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
+        <v>274</v>
+      </c>
+      <c r="B127" t="s">
         <v>275</v>
       </c>
-      <c r="B127" t="s">
-        <v>276</v>
-      </c>
       <c r="C127" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D127" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E127">
         <v>1696.4074813717</v>
@@ -8809,16 +8802,16 @@
     </row>
     <row r="128" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
+        <v>276</v>
+      </c>
+      <c r="B128" t="s">
         <v>277</v>
       </c>
-      <c r="B128" t="s">
-        <v>278</v>
-      </c>
       <c r="C128" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D128" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E128">
         <v>4337.5510346397004</v>
@@ -8877,16 +8870,16 @@
     </row>
     <row r="129" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
+        <v>278</v>
+      </c>
+      <c r="B129" t="s">
         <v>279</v>
       </c>
-      <c r="B129" t="s">
-        <v>280</v>
-      </c>
       <c r="C129" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D129" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E129">
         <v>10451.218090005999</v>
@@ -8942,16 +8935,16 @@
     </row>
     <row r="130" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
+        <v>280</v>
+      </c>
+      <c r="B130" t="s">
         <v>281</v>
       </c>
-      <c r="B130" t="s">
-        <v>282</v>
-      </c>
       <c r="C130" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D130" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E130">
         <v>1178.0782697290001</v>
@@ -9010,16 +9003,16 @@
     </row>
     <row r="131" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
+        <v>282</v>
+      </c>
+      <c r="B131" t="s">
         <v>283</v>
       </c>
-      <c r="B131" t="s">
-        <v>284</v>
-      </c>
       <c r="C131" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D131" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E131">
         <v>349.38502084144</v>
@@ -9075,16 +9068,16 @@
     </row>
     <row r="132" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
+        <v>284</v>
+      </c>
+      <c r="B132" t="s">
         <v>285</v>
       </c>
-      <c r="B132" t="s">
-        <v>286</v>
-      </c>
       <c r="C132" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D132" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E132">
         <v>985.78547125100999</v>
@@ -9140,30 +9133,30 @@
     </row>
     <row r="133" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
+        <v>286</v>
+      </c>
+      <c r="B133" t="s">
         <v>287</v>
       </c>
-      <c r="B133" t="s">
-        <v>288</v>
-      </c>
       <c r="C133" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D133" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="134" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
+        <v>288</v>
+      </c>
+      <c r="B134" t="s">
         <v>289</v>
       </c>
-      <c r="B134" t="s">
-        <v>290</v>
-      </c>
       <c r="C134" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D134" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E134">
         <v>2733.3830072486999</v>
@@ -9219,16 +9212,16 @@
     </row>
     <row r="135" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
+        <v>290</v>
+      </c>
+      <c r="B135" t="s">
         <v>291</v>
       </c>
-      <c r="B135" t="s">
-        <v>292</v>
-      </c>
       <c r="C135" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D135" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E135">
         <v>714.11854367825003</v>
@@ -9239,16 +9232,16 @@
     </row>
     <row r="136" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
+        <v>292</v>
+      </c>
+      <c r="B136" t="s">
         <v>293</v>
       </c>
-      <c r="B136" t="s">
-        <v>294</v>
-      </c>
       <c r="C136" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D136" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E136">
         <v>1284.4789293076001</v>
@@ -9304,16 +9297,16 @@
     </row>
     <row r="137" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
+        <v>294</v>
+      </c>
+      <c r="B137" t="s">
         <v>295</v>
       </c>
-      <c r="B137" t="s">
-        <v>296</v>
-      </c>
       <c r="C137" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D137" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E137">
         <v>305.28684666570001</v>
@@ -9369,16 +9362,16 @@
     </row>
     <row r="138" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
+        <v>296</v>
+      </c>
+      <c r="B138" t="s">
         <v>297</v>
       </c>
-      <c r="B138" t="s">
-        <v>298</v>
-      </c>
       <c r="C138" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D138" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E138">
         <v>408.60878974324999</v>
@@ -9434,30 +9427,30 @@
     </row>
     <row r="139" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
+        <v>298</v>
+      </c>
+      <c r="B139" t="s">
         <v>299</v>
       </c>
-      <c r="B139" t="s">
-        <v>300</v>
-      </c>
       <c r="C139" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D139" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="140" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
+        <v>300</v>
+      </c>
+      <c r="B140" t="s">
         <v>301</v>
       </c>
-      <c r="B140" t="s">
-        <v>302</v>
-      </c>
       <c r="C140" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D140" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E140">
         <v>446.30374346917</v>
@@ -9513,16 +9506,16 @@
     </row>
     <row r="141" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
+        <v>302</v>
+      </c>
+      <c r="B141" t="s">
         <v>303</v>
       </c>
-      <c r="B141" t="s">
-        <v>304</v>
-      </c>
       <c r="C141" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D141" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E141">
         <v>442.03775610899999</v>
@@ -9578,16 +9571,16 @@
     </row>
     <row r="142" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
+        <v>304</v>
+      </c>
+      <c r="B142" t="s">
         <v>305</v>
       </c>
-      <c r="B142" t="s">
-        <v>306</v>
-      </c>
       <c r="C142" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D142" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E142">
         <v>921.78929064472004</v>
@@ -9643,16 +9636,16 @@
     </row>
     <row r="143" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
+        <v>306</v>
+      </c>
+      <c r="B143" t="s">
         <v>307</v>
       </c>
-      <c r="B143" t="s">
-        <v>308</v>
-      </c>
       <c r="C143" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D143" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E143">
         <v>9.7683211289299994</v>
@@ -9663,16 +9656,16 @@
     </row>
     <row r="144" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
+        <v>308</v>
+      </c>
+      <c r="B144" t="s">
         <v>309</v>
       </c>
-      <c r="B144" t="s">
-        <v>310</v>
-      </c>
       <c r="C144" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D144" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E144">
         <v>1702.1288962765</v>
@@ -9728,16 +9721,16 @@
     </row>
     <row r="145" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
+        <v>310</v>
+      </c>
+      <c r="B145" t="s">
         <v>311</v>
       </c>
-      <c r="B145" t="s">
-        <v>312</v>
-      </c>
       <c r="C145" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D145" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E145">
         <v>2669.9039584000002</v>
@@ -9796,16 +9789,16 @@
     </row>
     <row r="146" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
+        <v>312</v>
+      </c>
+      <c r="B146" t="s">
         <v>313</v>
       </c>
-      <c r="B146" t="s">
-        <v>314</v>
-      </c>
       <c r="C146" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D146" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E146">
         <v>9172.0559833214993</v>
@@ -9864,16 +9857,16 @@
     </row>
     <row r="147" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
+        <v>314</v>
+      </c>
+      <c r="B147" t="s">
         <v>315</v>
       </c>
-      <c r="B147" t="s">
-        <v>316</v>
-      </c>
       <c r="C147" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D147" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E147">
         <v>2114.3934914716001</v>
@@ -9932,44 +9925,44 @@
     </row>
     <row r="148" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
+        <v>316</v>
+      </c>
+      <c r="B148" t="s">
         <v>317</v>
       </c>
-      <c r="B148" t="s">
-        <v>318</v>
-      </c>
       <c r="C148" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D148" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="149" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
+        <v>318</v>
+      </c>
+      <c r="B149" t="s">
         <v>319</v>
       </c>
-      <c r="B149" t="s">
-        <v>320</v>
-      </c>
       <c r="C149" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D149" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="150" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
+        <v>320</v>
+      </c>
+      <c r="B150" t="s">
         <v>321</v>
       </c>
-      <c r="B150" t="s">
-        <v>322</v>
-      </c>
       <c r="C150" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D150" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E150">
         <v>486.58273006659999</v>
@@ -10025,30 +10018,30 @@
     </row>
     <row r="151" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
+        <v>322</v>
+      </c>
+      <c r="B151" t="s">
         <v>323</v>
       </c>
-      <c r="B151" t="s">
-        <v>324</v>
-      </c>
       <c r="C151" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D151" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="152" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
+        <v>324</v>
+      </c>
+      <c r="B152" t="s">
         <v>325</v>
       </c>
-      <c r="B152" t="s">
-        <v>326</v>
-      </c>
       <c r="C152" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D152" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E152">
         <v>1197.8578102464</v>
@@ -10104,16 +10097,16 @@
     </row>
     <row r="153" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
+        <v>326</v>
+      </c>
+      <c r="B153" t="s">
         <v>327</v>
       </c>
-      <c r="B153" t="s">
-        <v>328</v>
-      </c>
       <c r="C153" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D153" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E153">
         <v>250.83474247372001</v>
@@ -10169,16 +10162,16 @@
     </row>
     <row r="154" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
+        <v>328</v>
+      </c>
+      <c r="B154" t="s">
         <v>329</v>
       </c>
-      <c r="B154" t="s">
-        <v>330</v>
-      </c>
       <c r="C154" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D154" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E154">
         <v>917.63288949214996</v>
@@ -10189,16 +10182,16 @@
     </row>
     <row r="155" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
+        <v>330</v>
+      </c>
+      <c r="B155" t="s">
         <v>331</v>
       </c>
-      <c r="B155" t="s">
-        <v>332</v>
-      </c>
       <c r="C155" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D155" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E155">
         <v>1850.1358403643001</v>
@@ -10254,16 +10247,16 @@
     </row>
     <row r="156" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
+        <v>332</v>
+      </c>
+      <c r="B156" t="s">
         <v>333</v>
       </c>
-      <c r="B156" t="s">
-        <v>334</v>
-      </c>
       <c r="C156" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D156" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E156">
         <v>1711.4820199475</v>
@@ -10322,16 +10315,16 @@
     </row>
     <row r="157" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
+        <v>334</v>
+      </c>
+      <c r="B157" t="s">
         <v>335</v>
       </c>
-      <c r="B157" t="s">
-        <v>336</v>
-      </c>
       <c r="C157" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D157" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E157">
         <v>577.01184797661006</v>
@@ -10342,16 +10335,16 @@
     </row>
     <row r="158" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
+        <v>336</v>
+      </c>
+      <c r="B158" t="s">
         <v>337</v>
       </c>
-      <c r="B158" t="s">
-        <v>338</v>
-      </c>
       <c r="C158" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D158" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E158">
         <v>960.99605433156</v>
@@ -10407,16 +10400,16 @@
     </row>
     <row r="159" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
+        <v>338</v>
+      </c>
+      <c r="B159" t="s">
         <v>339</v>
       </c>
-      <c r="B159" t="s">
-        <v>340</v>
-      </c>
       <c r="C159" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D159" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E159">
         <v>1486.5957489963</v>
@@ -10472,30 +10465,30 @@
     </row>
     <row r="160" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
+        <v>340</v>
+      </c>
+      <c r="B160" t="s">
         <v>341</v>
       </c>
-      <c r="B160" t="s">
-        <v>342</v>
-      </c>
       <c r="C160" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D160" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="161" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
+        <v>342</v>
+      </c>
+      <c r="B161" t="s">
         <v>343</v>
       </c>
-      <c r="B161" t="s">
-        <v>344</v>
-      </c>
       <c r="C161" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D161" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E161">
         <v>2095.1787304208001</v>
@@ -10551,16 +10544,16 @@
     </row>
     <row r="162" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
+        <v>344</v>
+      </c>
+      <c r="B162" t="s">
         <v>345</v>
       </c>
-      <c r="B162" t="s">
-        <v>346</v>
-      </c>
       <c r="C162" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D162" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E162">
         <v>314.35350087276998</v>
@@ -10616,16 +10609,16 @@
     </row>
     <row r="163" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
+        <v>346</v>
+      </c>
+      <c r="B163" t="s">
         <v>347</v>
       </c>
-      <c r="B163" t="s">
-        <v>348</v>
-      </c>
       <c r="C163" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D163" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E163">
         <v>1211.7108746706999</v>
@@ -10681,16 +10674,16 @@
     </row>
     <row r="164" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
+        <v>348</v>
+      </c>
+      <c r="B164" t="s">
         <v>349</v>
       </c>
-      <c r="B164" t="s">
-        <v>350</v>
-      </c>
       <c r="C164" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D164" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E164">
         <v>1841.6794367328</v>
@@ -10746,16 +10739,16 @@
     </row>
     <row r="165" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
+        <v>350</v>
+      </c>
+      <c r="B165" t="s">
         <v>351</v>
       </c>
-      <c r="B165" t="s">
-        <v>352</v>
-      </c>
       <c r="C165" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D165" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E165">
         <v>1301.0992819275</v>
@@ -10811,30 +10804,30 @@
     </row>
     <row r="166" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
+        <v>352</v>
+      </c>
+      <c r="B166" t="s">
         <v>353</v>
       </c>
-      <c r="B166" t="s">
-        <v>354</v>
-      </c>
       <c r="C166" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D166" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="167" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
+        <v>354</v>
+      </c>
+      <c r="B167" t="s">
         <v>355</v>
       </c>
-      <c r="B167" t="s">
-        <v>356</v>
-      </c>
       <c r="C167" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D167" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E167">
         <v>428.69252192011999</v>
@@ -10890,30 +10883,30 @@
     </row>
     <row r="168" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
+        <v>356</v>
+      </c>
+      <c r="B168" t="s">
         <v>357</v>
       </c>
-      <c r="B168" t="s">
-        <v>358</v>
-      </c>
       <c r="C168" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D168" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="169" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
+        <v>358</v>
+      </c>
+      <c r="B169" t="s">
         <v>359</v>
       </c>
-      <c r="B169" t="s">
-        <v>360</v>
-      </c>
       <c r="C169" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D169" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E169">
         <v>1006.0206291682</v>
@@ -10969,30 +10962,30 @@
     </row>
     <row r="170" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
+        <v>360</v>
+      </c>
+      <c r="B170" t="s">
         <v>361</v>
       </c>
-      <c r="B170" t="s">
-        <v>362</v>
-      </c>
       <c r="C170" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D170" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="171" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
+        <v>362</v>
+      </c>
+      <c r="B171" t="s">
         <v>363</v>
       </c>
-      <c r="B171" t="s">
-        <v>364</v>
-      </c>
       <c r="C171" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D171" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E171">
         <v>2472.1268328359001</v>
@@ -11048,16 +11041,16 @@
     </row>
     <row r="172" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
+        <v>364</v>
+      </c>
+      <c r="B172" t="s">
         <v>365</v>
       </c>
-      <c r="B172" t="s">
-        <v>366</v>
-      </c>
       <c r="C172" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D172" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E172">
         <v>7766.0862519190996</v>
@@ -11116,16 +11109,16 @@
     </row>
     <row r="173" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
+        <v>366</v>
+      </c>
+      <c r="B173" t="s">
         <v>367</v>
       </c>
-      <c r="B173" t="s">
-        <v>368</v>
-      </c>
       <c r="C173" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D173" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E173">
         <v>693.01580187170998</v>
@@ -11181,30 +11174,30 @@
     </row>
     <row r="174" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
+        <v>368</v>
+      </c>
+      <c r="B174" t="s">
         <v>369</v>
       </c>
-      <c r="B174" t="s">
-        <v>370</v>
-      </c>
       <c r="C174" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D174" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="175" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
+        <v>370</v>
+      </c>
+      <c r="B175" t="s">
         <v>371</v>
       </c>
-      <c r="B175" t="s">
-        <v>372</v>
-      </c>
       <c r="C175" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D175" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E175">
         <v>124.90522438462</v>
@@ -11260,16 +11253,16 @@
     </row>
     <row r="176" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
+        <v>372</v>
+      </c>
+      <c r="B176" t="s">
         <v>373</v>
       </c>
-      <c r="B176" t="s">
-        <v>374</v>
-      </c>
       <c r="C176" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D176" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E176">
         <v>287.95079633112999</v>
@@ -11325,16 +11318,16 @@
     </row>
     <row r="177" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
+        <v>374</v>
+      </c>
+      <c r="B177" t="s">
         <v>375</v>
       </c>
-      <c r="B177" t="s">
-        <v>376</v>
-      </c>
       <c r="C177" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D177" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E177">
         <v>538.91405551458001</v>
@@ -11390,16 +11383,16 @@
     </row>
     <row r="178" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
+        <v>376</v>
+      </c>
+      <c r="B178" t="s">
         <v>377</v>
       </c>
-      <c r="B178" t="s">
-        <v>378</v>
-      </c>
       <c r="C178" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D178" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E178">
         <v>4840.7843403650004</v>
@@ -11458,16 +11451,16 @@
     </row>
     <row r="179" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
+        <v>378</v>
+      </c>
+      <c r="B179" t="s">
         <v>379</v>
       </c>
-      <c r="B179" t="s">
-        <v>380</v>
-      </c>
       <c r="C179" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D179" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E179">
         <v>6319.1545278883004</v>
@@ -11526,16 +11519,16 @@
     </row>
     <row r="180" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
+        <v>380</v>
+      </c>
+      <c r="B180" t="s">
         <v>381</v>
       </c>
-      <c r="B180" t="s">
-        <v>382</v>
-      </c>
       <c r="C180" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D180" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E180">
         <v>343.77075334162998</v>
@@ -11591,30 +11584,30 @@
     </row>
     <row r="181" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
+        <v>382</v>
+      </c>
+      <c r="B181" t="s">
         <v>383</v>
       </c>
-      <c r="B181" t="s">
-        <v>384</v>
-      </c>
       <c r="C181" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D181" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="182" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
+        <v>384</v>
+      </c>
+      <c r="B182" t="s">
         <v>385</v>
       </c>
-      <c r="B182" t="s">
-        <v>386</v>
-      </c>
       <c r="C182" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D182" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E182">
         <v>4023.0174065703</v>
@@ -11673,16 +11666,16 @@
     </row>
     <row r="183" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
+        <v>386</v>
+      </c>
+      <c r="B183" t="s">
         <v>387</v>
       </c>
-      <c r="B183" t="s">
-        <v>388</v>
-      </c>
       <c r="C183" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D183" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E183">
         <v>4449.4458750258</v>
@@ -11741,16 +11734,16 @@
     </row>
     <row r="184" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
+        <v>388</v>
+      </c>
+      <c r="B184" t="s">
         <v>389</v>
       </c>
-      <c r="B184" t="s">
-        <v>390</v>
-      </c>
       <c r="C184" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D184" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E184">
         <v>6138.7734425029003</v>
@@ -11806,16 +11799,16 @@
     </row>
     <row r="185" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
+        <v>390</v>
+      </c>
+      <c r="B185" t="s">
         <v>391</v>
       </c>
-      <c r="B185" t="s">
-        <v>392</v>
-      </c>
       <c r="C185" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D185" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E185">
         <v>2717.6404718039998</v>
@@ -11826,16 +11819,16 @@
     </row>
     <row r="186" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
+        <v>392</v>
+      </c>
+      <c r="B186" t="s">
         <v>393</v>
       </c>
-      <c r="B186" t="s">
-        <v>394</v>
-      </c>
       <c r="C186" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D186" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E186">
         <v>443.86535077737</v>
@@ -11891,16 +11884,16 @@
     </row>
     <row r="187" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
+        <v>394</v>
+      </c>
+      <c r="B187" t="s">
         <v>395</v>
       </c>
-      <c r="B187" t="s">
-        <v>396</v>
-      </c>
       <c r="C187" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D187" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E187">
         <v>874.56606978567004</v>
@@ -11956,16 +11949,16 @@
     </row>
     <row r="188" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
+        <v>396</v>
+      </c>
+      <c r="B188" t="s">
         <v>397</v>
       </c>
-      <c r="B188" t="s">
-        <v>398</v>
-      </c>
       <c r="C188" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D188" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E188">
         <v>503.24322330884002</v>
@@ -12021,16 +12014,16 @@
     </row>
     <row r="189" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
+        <v>398</v>
+      </c>
+      <c r="B189" t="s">
         <v>399</v>
       </c>
-      <c r="B189" t="s">
-        <v>400</v>
-      </c>
       <c r="C189" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D189" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E189">
         <v>423.35601235841</v>
@@ -12086,44 +12079,44 @@
     </row>
     <row r="190" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
+        <v>400</v>
+      </c>
+      <c r="B190" t="s">
         <v>401</v>
       </c>
-      <c r="B190" t="s">
-        <v>402</v>
-      </c>
       <c r="C190" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D190" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="191" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
+        <v>402</v>
+      </c>
+      <c r="B191" t="s">
         <v>403</v>
       </c>
-      <c r="B191" t="s">
-        <v>404</v>
-      </c>
       <c r="C191" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D191" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="192" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
+        <v>404</v>
+      </c>
+      <c r="B192" t="s">
         <v>405</v>
       </c>
-      <c r="B192" t="s">
-        <v>406</v>
-      </c>
       <c r="C192" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D192" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E192">
         <v>2538.7611238425998</v>
@@ -12182,16 +12175,16 @@
     </row>
     <row r="193" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
+        <v>406</v>
+      </c>
+      <c r="B193" t="s">
         <v>407</v>
       </c>
-      <c r="B193" t="s">
-        <v>408</v>
-      </c>
       <c r="C193" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D193" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E193">
         <v>376.14951058081999</v>
@@ -12247,30 +12240,30 @@
     </row>
     <row r="194" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
+        <v>408</v>
+      </c>
+      <c r="B194" t="s">
         <v>409</v>
       </c>
-      <c r="B194" t="s">
-        <v>410</v>
-      </c>
       <c r="C194" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D194" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="195" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
+        <v>410</v>
+      </c>
+      <c r="B195" t="s">
         <v>411</v>
       </c>
-      <c r="B195" t="s">
-        <v>412</v>
-      </c>
       <c r="C195" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D195" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E195">
         <v>878.70177026099998</v>
@@ -12326,16 +12319,16 @@
     </row>
     <row r="196" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
+        <v>412</v>
+      </c>
+      <c r="B196" t="s">
         <v>413</v>
       </c>
-      <c r="B196" t="s">
-        <v>414</v>
-      </c>
       <c r="C196" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D196" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E196">
         <v>2390.463745995</v>
@@ -12394,16 +12387,16 @@
     </row>
     <row r="197" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
+        <v>414</v>
+      </c>
+      <c r="B197" t="s">
         <v>415</v>
       </c>
-      <c r="B197" t="s">
-        <v>416</v>
-      </c>
       <c r="C197" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D197" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E197">
         <v>742.13781078396005</v>
@@ -12459,30 +12452,30 @@
     </row>
     <row r="198" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
+        <v>416</v>
+      </c>
+      <c r="B198" t="s">
         <v>417</v>
       </c>
-      <c r="B198" t="s">
-        <v>418</v>
-      </c>
       <c r="C198" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D198" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="199" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
+        <v>418</v>
+      </c>
+      <c r="B199" t="s">
         <v>419</v>
       </c>
-      <c r="B199" t="s">
-        <v>420</v>
-      </c>
       <c r="C199" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D199" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E199">
         <v>392.88539831386998</v>
@@ -12493,16 +12486,16 @@
     </row>
     <row r="200" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
+        <v>420</v>
+      </c>
+      <c r="B200" t="s">
         <v>421</v>
       </c>
-      <c r="B200" t="s">
-        <v>422</v>
-      </c>
       <c r="C200" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D200" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E200">
         <v>5065.5713139070003</v>
@@ -12561,30 +12554,30 @@
     </row>
     <row r="201" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
+        <v>422</v>
+      </c>
+      <c r="B201" t="s">
         <v>423</v>
       </c>
-      <c r="B201" t="s">
-        <v>424</v>
-      </c>
       <c r="C201" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D201" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="202" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
+        <v>424</v>
+      </c>
+      <c r="B202" t="s">
         <v>425</v>
       </c>
-      <c r="B202" t="s">
-        <v>426</v>
-      </c>
       <c r="C202" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D202" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E202">
         <v>20140.342875262999</v>
@@ -12640,16 +12633,16 @@
     </row>
     <row r="203" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
+        <v>426</v>
+      </c>
+      <c r="B203" t="s">
         <v>427</v>
       </c>
-      <c r="B203" t="s">
-        <v>428</v>
-      </c>
       <c r="C203" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D203" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E203">
         <v>1881.7176654847999</v>
@@ -12705,16 +12698,16 @@
     </row>
     <row r="204" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
+        <v>428</v>
+      </c>
+      <c r="B204" t="s">
         <v>429</v>
       </c>
-      <c r="B204" t="s">
-        <v>430</v>
-      </c>
       <c r="C204" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D204" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E204">
         <v>4689.1510844326003</v>
@@ -12770,16 +12763,16 @@
     </row>
     <row r="205" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
+        <v>430</v>
+      </c>
+      <c r="B205" t="s">
         <v>431</v>
       </c>
-      <c r="B205" t="s">
-        <v>432</v>
-      </c>
       <c r="C205" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D205" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E205">
         <v>350.90334467059</v>
@@ -12835,16 +12828,16 @@
     </row>
     <row r="206" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
+        <v>432</v>
+      </c>
+      <c r="B206" t="s">
         <v>433</v>
       </c>
-      <c r="B206" t="s">
-        <v>434</v>
-      </c>
       <c r="C206" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D206" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E206">
         <v>414.56307590613</v>
@@ -12900,16 +12893,16 @@
     </row>
     <row r="207" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
+        <v>434</v>
+      </c>
+      <c r="B207" t="s">
         <v>435</v>
       </c>
-      <c r="B207" t="s">
-        <v>436</v>
-      </c>
       <c r="C207" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D207" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E207">
         <v>6605.4410168761997</v>
@@ -12965,16 +12958,16 @@
     </row>
     <row r="208" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
+        <v>436</v>
+      </c>
+      <c r="B208" t="s">
         <v>437</v>
       </c>
-      <c r="B208" t="s">
-        <v>438</v>
-      </c>
       <c r="C208" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D208" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E208">
         <v>508.24315152316001</v>
@@ -13030,16 +13023,16 @@
     </row>
     <row r="209" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
+        <v>438</v>
+      </c>
+      <c r="B209" t="s">
         <v>439</v>
       </c>
-      <c r="B209" t="s">
-        <v>440</v>
-      </c>
       <c r="C209" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D209" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E209">
         <v>241.58961124582001</v>
@@ -13095,16 +13088,16 @@
     </row>
     <row r="210" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
+        <v>440</v>
+      </c>
+      <c r="B210" t="s">
         <v>441</v>
       </c>
-      <c r="B210" t="s">
-        <v>442</v>
-      </c>
       <c r="C210" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D210" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E210">
         <v>5128.3086566621996</v>
@@ -13160,16 +13153,16 @@
     </row>
     <row r="211" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
+        <v>442</v>
+      </c>
+      <c r="B211" t="s">
         <v>443</v>
       </c>
-      <c r="B211" t="s">
-        <v>444</v>
-      </c>
       <c r="C211" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D211" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E211">
         <v>120.01773821486999</v>
@@ -13180,30 +13173,30 @@
     </row>
     <row r="212" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
+        <v>444</v>
+      </c>
+      <c r="B212" t="s">
         <v>445</v>
       </c>
-      <c r="B212" t="s">
-        <v>446</v>
-      </c>
       <c r="C212" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D212" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="213" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
+        <v>446</v>
+      </c>
+      <c r="B213" t="s">
         <v>447</v>
       </c>
-      <c r="B213" t="s">
-        <v>448</v>
-      </c>
       <c r="C213" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D213" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E213">
         <v>686.95782763603995</v>
@@ -13259,44 +13252,44 @@
     </row>
     <row r="214" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
+        <v>448</v>
+      </c>
+      <c r="B214" t="s">
         <v>449</v>
       </c>
-      <c r="B214" t="s">
-        <v>450</v>
-      </c>
       <c r="C214" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D214" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="215" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
+        <v>450</v>
+      </c>
+      <c r="B215" t="s">
         <v>451</v>
       </c>
-      <c r="B215" t="s">
-        <v>452</v>
-      </c>
       <c r="C215" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D215" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="216" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
+        <v>452</v>
+      </c>
+      <c r="B216" t="s">
         <v>453</v>
       </c>
-      <c r="B216" t="s">
-        <v>454</v>
-      </c>
       <c r="C216" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D216" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E216">
         <v>2293.6791324622</v>
@@ -13352,16 +13345,16 @@
     </row>
     <row r="217" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
+        <v>454</v>
+      </c>
+      <c r="B217" t="s">
         <v>455</v>
       </c>
-      <c r="B217" t="s">
-        <v>456</v>
-      </c>
       <c r="C217" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D217" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E217">
         <v>498.68572403541998</v>
@@ -13417,16 +13410,16 @@
     </row>
     <row r="218" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
+        <v>456</v>
+      </c>
+      <c r="B218" t="s">
         <v>457</v>
       </c>
-      <c r="B218" t="s">
-        <v>458</v>
-      </c>
       <c r="C218" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D218" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K218">
         <v>59.27491729986</v>
@@ -13464,16 +13457,16 @@
     </row>
     <row r="219" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
+        <v>458</v>
+      </c>
+      <c r="B219" t="s">
         <v>459</v>
       </c>
-      <c r="B219" t="s">
-        <v>460</v>
-      </c>
       <c r="C219" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D219" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E219">
         <v>498.96411989161999</v>
@@ -13529,16 +13522,16 @@
     </row>
     <row r="220" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
+        <v>460</v>
+      </c>
+      <c r="B220" t="s">
         <v>461</v>
       </c>
-      <c r="B220" t="s">
-        <v>462</v>
-      </c>
       <c r="C220" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D220" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E220">
         <v>2144.8026206781001</v>
@@ -13549,16 +13542,16 @@
     </row>
     <row r="221" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
+        <v>462</v>
+      </c>
+      <c r="B221" t="s">
         <v>463</v>
       </c>
-      <c r="B221" t="s">
-        <v>464</v>
-      </c>
       <c r="C221" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D221" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E221">
         <v>265.63952716163999</v>
@@ -13569,16 +13562,16 @@
     </row>
     <row r="222" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
+        <v>464</v>
+      </c>
+      <c r="B222" t="s">
         <v>465</v>
       </c>
-      <c r="B222" t="s">
-        <v>466</v>
-      </c>
       <c r="C222" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D222" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E222">
         <v>1174.7190739791999</v>
@@ -13634,16 +13627,16 @@
     </row>
     <row r="223" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
+        <v>466</v>
+      </c>
+      <c r="B223" t="s">
         <v>467</v>
       </c>
-      <c r="B223" t="s">
-        <v>468</v>
-      </c>
       <c r="C223" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D223" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E223">
         <v>3469.4273788042001</v>
@@ -13702,16 +13695,16 @@
     </row>
     <row r="224" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
+        <v>468</v>
+      </c>
+      <c r="B224" t="s">
         <v>469</v>
       </c>
-      <c r="B224" t="s">
-        <v>470</v>
-      </c>
       <c r="C224" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D224" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E224">
         <v>3735.0243134380999</v>
@@ -13770,16 +13763,16 @@
     </row>
     <row r="225" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
+        <v>470</v>
+      </c>
+      <c r="B225" t="s">
         <v>471</v>
       </c>
-      <c r="B225" t="s">
-        <v>472</v>
-      </c>
       <c r="C225" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D225" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E225">
         <v>5532.7626571438996</v>
@@ -13838,16 +13831,16 @@
     </row>
     <row r="226" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
+        <v>472</v>
+      </c>
+      <c r="B226" t="s">
         <v>473</v>
       </c>
-      <c r="B226" t="s">
-        <v>474</v>
-      </c>
       <c r="C226" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D226" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E226">
         <v>900.42178108485996</v>
@@ -13903,30 +13896,30 @@
     </row>
     <row r="227" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
+        <v>474</v>
+      </c>
+      <c r="B227" t="s">
         <v>475</v>
       </c>
-      <c r="B227" t="s">
-        <v>476</v>
-      </c>
       <c r="C227" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D227" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="228" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
+        <v>476</v>
+      </c>
+      <c r="B228" t="s">
         <v>477</v>
       </c>
-      <c r="B228" t="s">
-        <v>478</v>
-      </c>
       <c r="C228" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D228" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E228">
         <v>2872.3404255319001</v>
@@ -13937,16 +13930,16 @@
     </row>
     <row r="229" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
+        <v>478</v>
+      </c>
+      <c r="B229" t="s">
         <v>479</v>
       </c>
-      <c r="B229" t="s">
-        <v>480</v>
-      </c>
       <c r="C229" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D229" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E229">
         <v>1101.6382146378</v>
@@ -14002,30 +13995,30 @@
     </row>
     <row r="230" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
+        <v>480</v>
+      </c>
+      <c r="B230" t="s">
         <v>481</v>
       </c>
-      <c r="B230" t="s">
-        <v>482</v>
-      </c>
       <c r="C230" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D230" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="231" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
+        <v>482</v>
+      </c>
+      <c r="B231" t="s">
         <v>483</v>
       </c>
-      <c r="B231" t="s">
-        <v>484</v>
-      </c>
       <c r="C231" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D231" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E231">
         <v>224.01010705305001</v>
@@ -14081,16 +14074,16 @@
     </row>
     <row r="232" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
+        <v>484</v>
+      </c>
+      <c r="B232" t="s">
         <v>485</v>
       </c>
-      <c r="B232" t="s">
-        <v>486</v>
-      </c>
       <c r="C232" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D232" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E232">
         <v>1259.7304852459999</v>
@@ -14146,16 +14139,16 @@
     </row>
     <row r="233" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
+        <v>486</v>
+      </c>
+      <c r="B233" t="s">
         <v>487</v>
       </c>
-      <c r="B233" t="s">
-        <v>488</v>
-      </c>
       <c r="C233" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D233" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E233">
         <v>2910.7050671968</v>
@@ -14211,16 +14204,16 @@
     </row>
     <row r="234" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
+        <v>488</v>
+      </c>
+      <c r="B234" t="s">
         <v>489</v>
       </c>
-      <c r="B234" t="s">
-        <v>490</v>
-      </c>
       <c r="C234" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D234" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E234">
         <v>394.05590501692001</v>
@@ -14276,16 +14269,16 @@
     </row>
     <row r="235" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
+        <v>490</v>
+      </c>
+      <c r="B235" t="s">
         <v>491</v>
       </c>
-      <c r="B235" t="s">
-        <v>492</v>
-      </c>
       <c r="C235" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D235" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E235">
         <v>1525.1261987751</v>
@@ -14341,16 +14334,16 @@
     </row>
     <row r="236" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
+        <v>492</v>
+      </c>
+      <c r="B236" t="s">
         <v>493</v>
       </c>
-      <c r="B236" t="s">
-        <v>494</v>
-      </c>
       <c r="C236" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D236" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E236">
         <v>341.86371184801999</v>
@@ -14406,16 +14399,16 @@
     </row>
     <row r="237" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
+        <v>494</v>
+      </c>
+      <c r="B237" t="s">
         <v>495</v>
       </c>
-      <c r="B237" t="s">
-        <v>496</v>
-      </c>
       <c r="C237" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D237" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E237">
         <v>3604.3324021459998</v>
@@ -14471,16 +14464,16 @@
     </row>
     <row r="238" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
+        <v>496</v>
+      </c>
+      <c r="B238" t="s">
         <v>497</v>
       </c>
-      <c r="B238" t="s">
-        <v>498</v>
-      </c>
       <c r="C238" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D238" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E238">
         <v>1287.7066025885999</v>
@@ -14536,16 +14529,16 @@
     </row>
     <row r="239" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
+        <v>498</v>
+      </c>
+      <c r="B239" t="s">
         <v>499</v>
       </c>
-      <c r="B239" t="s">
-        <v>500</v>
-      </c>
       <c r="C239" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D239" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E239">
         <v>60.413865698953003</v>
@@ -14556,16 +14549,16 @@
     </row>
     <row r="240" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
+        <v>500</v>
+      </c>
+      <c r="B240" t="s">
         <v>501</v>
       </c>
-      <c r="B240" t="s">
-        <v>502</v>
-      </c>
       <c r="C240" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D240" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E240">
         <v>1211.7108746706999</v>
@@ -14621,16 +14614,16 @@
     </row>
     <row r="241" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
+        <v>502</v>
+      </c>
+      <c r="B241" t="s">
         <v>503</v>
       </c>
-      <c r="B241" t="s">
-        <v>504</v>
-      </c>
       <c r="C241" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D241" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E241">
         <v>536.45544125813001</v>
@@ -14641,16 +14634,16 @@
     </row>
     <row r="242" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
+        <v>504</v>
+      </c>
+      <c r="B242" t="s">
         <v>505</v>
       </c>
-      <c r="B242" t="s">
-        <v>506</v>
-      </c>
       <c r="C242" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D242" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E242">
         <v>414.56307590613</v>
@@ -14706,16 +14699,16 @@
     </row>
     <row r="243" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
+        <v>506</v>
+      </c>
+      <c r="B243" t="s">
         <v>507</v>
       </c>
-      <c r="B243" t="s">
-        <v>508</v>
-      </c>
       <c r="C243" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D243" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E243">
         <v>498.96411989161999</v>
@@ -14771,16 +14764,16 @@
     </row>
     <row r="244" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
+        <v>508</v>
+      </c>
+      <c r="B244" t="s">
         <v>509</v>
       </c>
-      <c r="B244" t="s">
-        <v>510</v>
-      </c>
       <c r="C244" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D244" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E244">
         <v>13820.646751978</v>
@@ -14836,16 +14829,16 @@
     </row>
     <row r="245" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
+        <v>510</v>
+      </c>
+      <c r="B245" t="s">
         <v>511</v>
       </c>
-      <c r="B245" t="s">
-        <v>512</v>
-      </c>
       <c r="C245" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D245" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E245">
         <v>845.98560466278002</v>
@@ -14901,16 +14894,16 @@
     </row>
     <row r="246" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
+        <v>512</v>
+      </c>
+      <c r="B246" t="s">
         <v>513</v>
       </c>
-      <c r="B246" t="s">
-        <v>514</v>
-      </c>
       <c r="C246" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D246" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E246">
         <v>1328.6923013897999</v>
@@ -14969,30 +14962,30 @@
     </row>
     <row r="247" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
+        <v>514</v>
+      </c>
+      <c r="B247" t="s">
         <v>515</v>
       </c>
-      <c r="B247" t="s">
-        <v>516</v>
-      </c>
       <c r="C247" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D247" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="248" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
+        <v>516</v>
+      </c>
+      <c r="B248" t="s">
         <v>517</v>
       </c>
-      <c r="B248" t="s">
-        <v>518</v>
-      </c>
       <c r="C248" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D248" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E248">
         <v>429.31372523318998</v>
@@ -15048,16 +15041,16 @@
     </row>
     <row r="249" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
+        <v>518</v>
+      </c>
+      <c r="B249" t="s">
         <v>519</v>
       </c>
-      <c r="B249" t="s">
-        <v>520</v>
-      </c>
       <c r="C249" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D249" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E249">
         <v>393.87089421236999</v>
@@ -15113,16 +15106,16 @@
     </row>
     <row r="250" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
+        <v>520</v>
+      </c>
+      <c r="B250" t="s">
         <v>521</v>
       </c>
-      <c r="B250" t="s">
-        <v>522</v>
-      </c>
       <c r="C250" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D250" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E250">
         <v>2866.6234732695002</v>
@@ -15178,16 +15171,16 @@
     </row>
     <row r="251" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
+        <v>522</v>
+      </c>
+      <c r="B251" t="s">
         <v>523</v>
       </c>
-      <c r="B251" t="s">
-        <v>524</v>
-      </c>
       <c r="C251" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D251" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E251">
         <v>1450.0067916083001</v>
@@ -15243,16 +15236,16 @@
     </row>
     <row r="252" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
+        <v>524</v>
+      </c>
+      <c r="B252" t="s">
         <v>525</v>
       </c>
-      <c r="B252" t="s">
-        <v>526</v>
-      </c>
       <c r="C252" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D252" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E252">
         <v>990.48802429423995</v>
@@ -15308,16 +15301,16 @@
     </row>
     <row r="253" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
+        <v>526</v>
+      </c>
+      <c r="B253" t="s">
         <v>527</v>
       </c>
-      <c r="B253" t="s">
-        <v>528</v>
-      </c>
       <c r="C253" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D253" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E253">
         <v>7694.4065794812004</v>
@@ -15376,16 +15369,16 @@
     </row>
     <row r="254" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
+        <v>528</v>
+      </c>
+      <c r="B254" t="s">
         <v>529</v>
       </c>
-      <c r="B254" t="s">
-        <v>530</v>
-      </c>
       <c r="C254" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D254" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E254">
         <v>1695.1035686445</v>
@@ -15441,16 +15434,16 @@
     </row>
     <row r="255" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
+        <v>530</v>
+      </c>
+      <c r="B255" t="s">
         <v>531</v>
       </c>
-      <c r="B255" t="s">
-        <v>532</v>
-      </c>
       <c r="C255" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D255" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E255">
         <v>624.92188476440003</v>
@@ -15461,16 +15454,16 @@
     </row>
     <row r="256" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
+        <v>532</v>
+      </c>
+      <c r="B256" t="s">
         <v>533</v>
       </c>
-      <c r="B256" t="s">
-        <v>534</v>
-      </c>
       <c r="C256" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D256" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E256">
         <v>2375.2320587356999</v>
@@ -15526,44 +15519,44 @@
     </row>
     <row r="257" spans="1:21" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
+        <v>534</v>
+      </c>
+      <c r="B257" t="s">
         <v>535</v>
       </c>
-      <c r="B257" t="s">
-        <v>536</v>
-      </c>
       <c r="C257" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D257" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="258" spans="1:21" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
+        <v>536</v>
+      </c>
+      <c r="B258" t="s">
         <v>537</v>
       </c>
-      <c r="B258" t="s">
-        <v>538</v>
-      </c>
       <c r="C258" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D258" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="259" spans="1:21" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
+        <v>538</v>
+      </c>
+      <c r="B259" t="s">
         <v>539</v>
       </c>
-      <c r="B259" t="s">
-        <v>540</v>
-      </c>
       <c r="C259" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D259" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E259">
         <v>515.07504247267002</v>
@@ -15619,16 +15612,16 @@
     </row>
     <row r="260" spans="1:21" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
+        <v>540</v>
+      </c>
+      <c r="B260" t="s">
         <v>541</v>
       </c>
-      <c r="B260" t="s">
-        <v>542</v>
-      </c>
       <c r="C260" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D260" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E260">
         <v>143.56969845731999</v>
@@ -15639,16 +15632,16 @@
     </row>
     <row r="261" spans="1:21" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
+        <v>542</v>
+      </c>
+      <c r="B261" t="s">
         <v>543</v>
       </c>
-      <c r="B261" t="s">
-        <v>544</v>
-      </c>
       <c r="C261" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D261" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E261">
         <v>1734.2609924743999</v>
@@ -15704,16 +15697,16 @@
     </row>
     <row r="262" spans="1:21" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
+        <v>544</v>
+      </c>
+      <c r="B262" t="s">
         <v>545</v>
       </c>
-      <c r="B262" t="s">
-        <v>546</v>
-      </c>
       <c r="C262" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D262" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E262">
         <v>303.66151862724001</v>
@@ -15724,16 +15717,16 @@
     </row>
     <row r="263" spans="1:21" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
+        <v>546</v>
+      </c>
+      <c r="B263" t="s">
         <v>547</v>
       </c>
-      <c r="B263" t="s">
-        <v>548</v>
-      </c>
       <c r="C263" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D263" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E263">
         <v>1084.4635010387999</v>
@@ -15765,16 +15758,16 @@
     </row>
     <row r="264" spans="1:21" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
+        <v>548</v>
+      </c>
+      <c r="B264" t="s">
         <v>549</v>
       </c>
-      <c r="B264" t="s">
-        <v>550</v>
-      </c>
       <c r="C264" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D264" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E264">
         <v>299.54292493567999</v>
@@ -15830,16 +15823,16 @@
     </row>
     <row r="265" spans="1:21" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
+        <v>550</v>
+      </c>
+      <c r="B265" t="s">
         <v>551</v>
       </c>
-      <c r="B265" t="s">
-        <v>552</v>
-      </c>
       <c r="C265" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D265" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E265">
         <v>2377.1460226906001</v>
@@ -15895,16 +15888,16 @@
     </row>
     <row r="266" spans="1:21" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
+        <v>552</v>
+      </c>
+      <c r="B266" t="s">
         <v>553</v>
       </c>
-      <c r="B266" t="s">
-        <v>554</v>
-      </c>
       <c r="C266" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D266" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E266">
         <v>604.44219526289999</v>
@@ -15960,16 +15953,16 @@
     </row>
     <row r="267" spans="1:21" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
+        <v>554</v>
+      </c>
+      <c r="B267" t="s">
         <v>555</v>
       </c>
-      <c r="B267" t="s">
-        <v>556</v>
-      </c>
       <c r="C267" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D267" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E267">
         <v>494.38376633529998</v>
